--- a/geohmount-plotly/sazonalidade-chuva/sazonalidade.xlsx
+++ b/geohmount-plotly/sazonalidade-chuva/sazonalidade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>mês</t>
   </si>
@@ -37,7 +37,13 @@
     <t>sd (SB)</t>
   </si>
   <si>
-    <t xml:space="preserve">Série Histórica (2007-2019) </t>
+    <t xml:space="preserve">Série Histórica - SM (2007-2019) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Histórica - BM (2007-2019) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Histórica - SB (2007-2019) </t>
   </si>
 </sst>
 </file>
@@ -419,9 +425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -440,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -449,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>6</v>
